--- a/data/trans_dic/P5_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de balcón en su vivienda</t>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>49,24%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,86; 53,48</t>
+          <t>21,82; 61,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,11; 60,75</t>
+          <t>40,92; 81,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,51; 50,11</t>
+          <t>27,01; 54,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,28; 51,35</t>
+          <t>26,0; 53,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,76; 47,86</t>
+          <t>31,01; 53,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,49; 51,39</t>
+          <t>37,15; 63,13</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>50,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>49,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,86; 57,01</t>
+          <t>41,81; 59,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,24; 58,08</t>
+          <t>42,82; 61,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,17; 51,94</t>
+          <t>38,68; 54,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,18; 51,87</t>
+          <t>39,2; 54,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,11; 52,72</t>
+          <t>42,85; 54,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,25; 53,16</t>
+          <t>43,7; 55,53</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>42,17%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,42; 53,13</t>
+          <t>35,16; 54,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,47; 50,61</t>
+          <t>34,88; 54,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,32; 47,27</t>
+          <t>33,13; 48,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,71; 47,86</t>
+          <t>33,4; 48,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,27; 47,86</t>
+          <t>36,13; 48,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,88; 46,61</t>
+          <t>36,11; 48,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 51,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,42; 52,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,26; 47,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 47,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,32; 48,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,99; 48,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50,14%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41,17; 53,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43,62; 57,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37,54; 47,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37,81; 48,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41,16; 49,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42,29; 50,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44647</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77323</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47887</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>56289</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>92533</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>133611</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22552; 63183</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52737; 104486</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31815; 64155</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37044; 76215</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>68590; 118566</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100809; 171311</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>186154</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>222287</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>179930</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>216377</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>366084</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>438664</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>153018; 219447</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>183921; 263394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>151084; 211168</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>182060; 253868</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>324233; 411782</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>390653; 496426</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>127500</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>147248</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>145406</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>173816</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>272906</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>321065</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>100535; 156280</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>116124; 181754</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>119123; 172951</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>143098; 206027</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>233227; 310953</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>274892; 365986</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>358301</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>446857</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>373223</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>446482</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>731524</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>893340</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>310938; 407810</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>388732; 510414</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>325845; 415507</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>391417; 497674</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>668186; 802617</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>814728; 976245</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>